--- a/hasil/2023_01_lipa_13.xlsx
+++ b/hasil/2023_01_lipa_13.xlsx
@@ -496,7 +496,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_13.xlsx
+++ b/hasil/2023_01_lipa_13.xlsx
@@ -496,7 +496,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 06 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
